--- a/Copy of CheckListCanyonDefense.xlsx
+++ b/Copy of CheckListCanyonDefense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Giao diện</t>
   </si>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,6 +760,9 @@
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>

--- a/Copy of CheckListCanyonDefense.xlsx
+++ b/Copy of CheckListCanyonDefense.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Persona\Desktop\PirateDefend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Giao diện</t>
   </si>
@@ -175,6 +180,15 @@
   </si>
   <si>
     <t>vinh</t>
+  </si>
+  <si>
+    <t>xong 4</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
+  </si>
+  <si>
+    <t>Có âm thanh, chưa có message</t>
   </si>
 </sst>
 </file>
@@ -286,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,20 +546,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +580,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,29 +621,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
       <c r="E4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -643,7 +663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -657,7 +677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -671,18 +691,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -696,40 +716,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -743,18 +772,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -768,18 +800,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
@@ -793,7 +828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
@@ -807,7 +842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
@@ -821,12 +856,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -834,7 +869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -842,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -850,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -864,7 +899,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -878,47 +913,65 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -926,15 +979,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -942,15 +998,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -974,7 +1033,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -986,7 +1045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of CheckListCanyonDefense.xlsx
+++ b/Copy of CheckListCanyonDefense.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Persona\Desktop\PirateDefend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>Giao diện</t>
   </si>
@@ -300,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,20 +541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +575,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,21 +616,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -649,7 +638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -663,7 +652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -677,7 +666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -691,7 +680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -702,7 +691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
@@ -716,7 +705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -730,7 +719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -744,7 +733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -758,7 +747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -772,7 +761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -786,7 +775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -800,7 +789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -814,7 +803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
@@ -828,7 +817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
@@ -836,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
@@ -856,12 +845,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -869,7 +858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -877,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -899,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -913,7 +902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>14</v>
       </c>
@@ -924,7 +913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -935,7 +924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -949,7 +938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -960,7 +949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -971,7 +960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -979,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -990,7 +979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -998,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>23</v>
       </c>
@@ -1009,12 +998,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35">
         <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1045,7 +1037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Copy of CheckListCanyonDefense.xlsx
+++ b/Copy of CheckListCanyonDefense.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>Giao diện</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Có âm thanh, chưa có message</t>
+  </si>
+  <si>
+    <t>xong(cấu hình mặc định unity)</t>
   </si>
 </sst>
 </file>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +999,9 @@
       </c>
       <c r="C33">
         <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">

--- a/Copy of CheckListCanyonDefense.xlsx
+++ b/Copy of CheckListCanyonDefense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Giao diện</t>
   </si>
@@ -542,7 +542,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,6 +1004,9 @@
       </c>
       <c r="C35">
         <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
       </c>
       <c r="E35" t="s">
         <v>52</v>
